--- a/ROOT/list.xlsx
+++ b/ROOT/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHubLib\ling-hub\ROOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781D1DA-CDF1-4EF0-81E9-8E59E1CF8CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071EB580-6F17-490A-B9A6-7AC47547BED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="89">
   <si>
     <t>JAVA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置反向代理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -448,11 +460,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -466,7 +517,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,7 +526,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -759,7 +823,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,7 +858,7 @@
       <c r="G1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>85</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -811,10 +875,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -830,7 +894,7 @@
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="9" t="s">
         <v>61</v>
       </c>
@@ -843,8 +907,8 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
@@ -854,7 +918,7 @@
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="3" t="s">
@@ -863,8 +927,8 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -876,7 +940,7 @@
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="3" t="s">
@@ -885,8 +949,8 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,7 +960,7 @@
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="3" t="s">
@@ -905,8 +969,8 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,7 +982,7 @@
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
         <v>66</v>
@@ -929,8 +993,8 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,7 +1004,7 @@
       <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="3" t="s">
@@ -949,8 +1013,8 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
@@ -960,7 +1024,7 @@
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="3" t="s">
@@ -969,8 +1033,8 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -982,7 +1046,7 @@
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="3" t="s">
@@ -991,8 +1055,8 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1068,7 @@
       <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="3" t="s">
@@ -1013,8 +1077,8 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1088,7 @@
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="3" t="s">
@@ -1033,8 +1097,8 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1108,7 @@
       <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="9" t="s">
         <v>75</v>
       </c>
@@ -1057,8 +1121,8 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +1132,7 @@
       <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="3" t="s">
@@ -1077,8 +1141,8 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1152,7 @@
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="3" t="s">
@@ -1097,8 +1161,8 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1172,7 @@
       <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="3" t="s">
@@ -1117,8 +1181,8 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1192,7 @@
       <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="3" t="s">
@@ -1137,8 +1201,8 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1150,9 +1214,9 @@
       <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="7" t="s">
         <v>81</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -1161,8 +1225,8 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1172,10 +1236,19 @@
       <c r="G18" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1185,10 +1258,17 @@
       <c r="G19" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1198,10 +1278,11 @@
       <c r="G20" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1213,10 +1294,11 @@
       <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,10 +1308,11 @@
       <c r="G22" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1239,10 +1322,11 @@
       <c r="G23" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1252,10 +1336,11 @@
       <c r="G24" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1265,10 +1350,11 @@
       <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1278,24 +1364,26 @@
       <c r="G26" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="H26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B26"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I12:I19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E26"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J11"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="I12:I17"/>
     <mergeCell ref="F21:F26"/>
     <mergeCell ref="F17:F20"/>
     <mergeCell ref="F10:F16"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B26"/>
-    <mergeCell ref="A2:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ROOT/list.xlsx
+++ b/ROOT/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHubLib\ling-hub\ROOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071EB580-6F17-490A-B9A6-7AC47547BED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABE1BFE-73B7-4EF1-B453-4842F5283D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>JAVA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>配置反向代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -499,11 +503,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -520,24 +535,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,7 +842,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -858,7 +877,7 @@
       <c r="G1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>85</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -875,30 +894,30 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="14" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -907,84 +926,84 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="3" t="s">
         <v>73</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>66</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -993,126 +1012,126 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="14" t="s">
         <v>62</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1121,101 +1140,101 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="3" t="s">
         <v>79</v>
       </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="3" t="s">
         <v>80</v>
       </c>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="7" t="s">
         <v>81</v>
       </c>
@@ -1225,20 +1244,20 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="14" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="12" t="s">
         <v>86</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -1247,132 +1266,138 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="15"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="3" t="s">
         <v>88</v>
       </c>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I12:I20"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B26"/>
     <mergeCell ref="A2:A26"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I12:I19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E26"/>
     <mergeCell ref="J2:J5"/>

--- a/ROOT/list.xlsx
+++ b/ROOT/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHubLib\ling-hub\ROOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MyGitLib\repository\ling-hub\ROOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABE1BFE-73B7-4EF1-B453-4842F5283D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6DAC17-86D6-4901-86C5-390B6E27C864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="learnList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>JAVA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,182 +207,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码整洁之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法导论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+  </si>
+  <si>
+    <t>底层/前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue/reactjs/angularjs/webpack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitblit(git服务端)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git/github/egit(eclipse插件)/tortoisegit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn/tortoisesvn/svn-eclipse插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeyondCompare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notepad++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置反向代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《精通正则表达式》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CA证书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码整洁之道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法导论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端</t>
-  </si>
-  <si>
-    <t>底层/前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOM树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue/reactjs/angularjs/webpack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eclipse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitblit(git服务端)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git/github/egit(eclipse插件)/tortoisegit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>svn/tortoisesvn/svn-eclipse插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sonar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jenkins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeyondCompare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notepad++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C/C++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素养</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载均衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置反向代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -478,47 +493,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -532,31 +523,40 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,560 +841,605 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="14" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="14" customWidth="1"/>
     <col min="11" max="11" width="32.625" customWidth="1"/>
+    <col min="12" max="12" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>66</v>
+      <c r="H6" s="16"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="H10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="H11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
+      <c r="H13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="14"/>
+      <c r="H14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>52</v>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
-        <v>53</v>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I12:I20"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="I12:I21"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B26"/>
     <mergeCell ref="A2:A26"/>

--- a/ROOT/list.xlsx
+++ b/ROOT/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MyGitLib\repository\ling-hub\ROOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6DAC17-86D6-4901-86C5-390B6E27C864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E8D91-7CA9-46E9-B9BC-F2A358564465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>JAVA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,10 @@
   </si>
   <si>
     <t>CA证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,18 +533,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,6 +549,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,19 +845,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="G18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="10" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="10" customWidth="1"/>
     <col min="11" max="11" width="32.625" customWidth="1"/>
-    <col min="12" max="12" width="9" style="14"/>
+    <col min="12" max="12" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -878,7 +882,7 @@
       <c r="G1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -895,546 +899,548 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="15" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="18"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="18"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="15" t="s">
         <v>61</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="8" t="s">
         <v>80</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15" t="s">
         <v>85</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="17"/>
+      <c r="H26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
